--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aldoc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\aldo\ERP3\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D13A6B3-7A8E-40AD-82E9-00AD15314F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A0F07B-4A8A-4838-98C0-E376A6D629BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,11 +131,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,8 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,475 +479,485 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>714466</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>30000</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>714466</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>10000</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>714466</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>5000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>737550</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>35000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>146832</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>65000</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>218895</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>40000</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>218895</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>10000</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>412290</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>5000</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>740150</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>35000</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>141962</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>2</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>65000</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>163416</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>30000</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>239344</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>5000</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>239344</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>10000</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>307599</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>7000</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>688981</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>100000</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>729833</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>65000</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>729833</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>5000</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
